--- a/solar expense.xlsx
+++ b/solar expense.xlsx
@@ -283,9 +283,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -305,11 +302,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -630,298 +630,298 @@
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>122000</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>310700</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>44259</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>42400</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>44320</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>205600</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>44290</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>5700</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>16900</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>44231</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>45660</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>5600</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>44290</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>500</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>5700</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>44290</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>286</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>44290</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>1530</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>44473</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>100</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>44473</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>9740</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>15</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>44443</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>16000</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>133</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>16</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>4500</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>135</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>17</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>12000</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="2:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17">
+      <c r="D24" s="17"/>
+      <c r="E24" s="15">
         <f>SUM(E7:E23)</f>
         <v>804916</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="30" spans="2:6" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="2:6" ht="33.6" x14ac:dyDescent="0.65">
       <c r="D31" s="1"/>
